--- a/output_data/charts/shares-Ross.xlsx
+++ b/output_data/charts/shares-Ross.xlsx
@@ -16,40 +16,40 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
-    <t>Construction</t>
+    <t>Unclassified</t>
+  </si>
+  <si>
+    <t>Trade, transportation, and utilities</t>
+  </si>
+  <si>
+    <t>Public administration</t>
+  </si>
+  <si>
+    <t>Professional and business services</t>
+  </si>
+  <si>
+    <t>Other services</t>
+  </si>
+  <si>
+    <t>Natural resources and mining</t>
+  </si>
+  <si>
+    <t>Manufacturing</t>
+  </si>
+  <si>
+    <t>Leisure and hospitality</t>
+  </si>
+  <si>
+    <t>Information</t>
+  </si>
+  <si>
+    <t>Financial activities</t>
   </si>
   <si>
     <t>Education and health services</t>
   </si>
   <si>
-    <t>Financial activities</t>
-  </si>
-  <si>
-    <t>Information</t>
-  </si>
-  <si>
-    <t>Leisure and hospitality</t>
-  </si>
-  <si>
-    <t>Manufacturing</t>
-  </si>
-  <si>
-    <t>Natural resources and mining</t>
-  </si>
-  <si>
-    <t>Other services</t>
-  </si>
-  <si>
-    <t>Professional and business services</t>
-  </si>
-  <si>
-    <t>Public administration</t>
-  </si>
-  <si>
-    <t>Trade, transportation, and utilities</t>
-  </si>
-  <si>
-    <t>Unclassified</t>
+    <t>Construction</t>
   </si>
   <si>
     <t>Year</t>
@@ -169,14 +169,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Construction</c:v>
+                  <c:v>Unclassified</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="1F77B4"/>
+              <a:srgbClr val="68AFFC"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -212,20 +212,14 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2.810629285888737</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.999029129558789</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.984394579864225</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.856092633251624</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.722573207636544</c:v>
+                <c:pt idx="2">
+                  <c:v>0.003796939669038458</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.007351589789579492</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.006793016778456115</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -240,14 +234,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Education and health services</c:v>
+                  <c:v>Trade, transportation, and utilities</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="FF7F0E"/>
+              <a:srgbClr val="4233A6"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -284,19 +278,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>33.08512186718689</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>34.33780427827269</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>36.4506208227692</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>34.58187837018193</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>31.94416140068989</c:v>
+                  <c:v>21.18922469299599</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.11578983481594</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.44511525072921</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21.55486126304707</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>20.46396304509904</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -311,14 +305,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Financial activities</c:v>
+                  <c:v>Public administration</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="2CA02C"/>
+              <a:srgbClr val="85E5DD"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -355,19 +349,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.339757623685481</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.380524288639275</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.528761819579612</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.606138580405929</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.36396983890272</c:v>
+                  <c:v>2.792378445321929</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.779675689703831</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.938831303835765</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.797279887182746</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.091909512360655</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -382,14 +376,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Information</c:v>
+                  <c:v>Professional and business services</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="D62728"/>
+              <a:srgbClr val="2A6866"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -426,19 +420,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.9964958753593773</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.9025854830271117</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.6302919873689236</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.6359124774676208</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.9714014080142861</c:v>
+                  <c:v>5.905971709351733</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.767916816452715</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.889053426678647</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.094467902846825</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.617824854045555</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -453,14 +447,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Leisure and hospitality</c:v>
+                  <c:v>Other services</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="9467BD"/>
+              <a:srgbClr val="66DE78"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -497,19 +491,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>12.50182506565701</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>12.26940917347014</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10.60864938716345</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10.86564970899848</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10.43407377170859</c:v>
+                  <c:v>1.934588988262252</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.981372935106103</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.697232032060189</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.863628011658393</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.728822770117077</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -524,14 +518,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Manufacturing</c:v>
+                  <c:v>Natural resources and mining</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="8C564B"/>
+              <a:srgbClr val="15974D"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -568,19 +562,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>16.03153742726001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>16.0487611785455</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>14.40179216466287</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15.73975373948969</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>15.30806331025085</c:v>
+                  <c:v>0.4124690190305904</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4171311924079166</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.4214602856188903</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3969858356801156</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.3464438643963234</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -595,14 +589,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Natural resources and mining</c:v>
+                  <c:v>Manufacturing</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="E377C2"/>
+              <a:srgbClr val="B4D170"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -639,19 +633,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.4124690190305904</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.4171311924079166</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.4214602856188903</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.3969858356801156</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.3464438643963234</c:v>
+                  <c:v>16.03153742726001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.0487611785455</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14.40179216466287</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.73975373948969</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15.30806331025085</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -666,14 +660,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Other services</c:v>
+                  <c:v>Leisure and hospitality</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="7F7F7F"/>
+              <a:srgbClr val="683C00"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -710,19 +704,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.934588988262252</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.981372935106103</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.697232032060189</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.863628011658393</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.728822770117077</c:v>
+                  <c:v>12.50182506565701</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12.26940917347014</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.60864938716345</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.86564970899848</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.43407377170859</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -737,14 +731,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Professional and business services</c:v>
+                  <c:v>Information</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="BCBD22"/>
+              <a:srgbClr val="CA7E54"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -781,19 +775,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>5.905971709351733</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>5.767916816452715</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.889053426678647</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.094467902846825</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.617824854045555</c:v>
+                  <c:v>0.9964958753593773</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.9025854830271117</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.6302919873689236</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.6359124774676208</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.9714014080142861</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -808,14 +802,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Public administration</c:v>
+                  <c:v>Financial activities</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="17BECF"/>
+              <a:srgbClr val="821F48"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -852,19 +846,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.792378445321929</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.779675689703831</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.938831303835765</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.797279887182746</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7.091909512360655</c:v>
+                  <c:v>2.339757623685481</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.380524288639275</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.528761819579612</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.606138580405929</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.36396983890272</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -879,14 +873,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Trade, transportation, and utilities</c:v>
+                  <c:v>Education and health services</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="8DD3C7"/>
+              <a:srgbClr val="F65B68"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -923,19 +917,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>21.18922469299599</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>20.11578983481594</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>21.44511525072921</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>21.55486126304707</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>20.46396304509904</c:v>
+                  <c:v>33.08512186718689</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34.33780427827269</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.4506208227692</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34.58187837018193</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.94416140068989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -950,14 +944,14 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Unclassified</c:v>
+                  <c:v>Construction</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="FFFFB3"/>
+              <a:srgbClr val="EBCECB"/>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -993,14 +987,20 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
-                <c:pt idx="2">
-                  <c:v>0.003796939669038458</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.007351589789579492</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.006793016778456115</c:v>
+                <c:pt idx="0">
+                  <c:v>2.810629285888737</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.999029129558789</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.984394579864225</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.856092633251624</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.722573207636544</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1045,7 +1045,6 @@
           <c:min val="0"/>
         </c:scaling>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1117,15 +1116,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1439,19 +1438,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="30.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="30.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="30.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="30.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="30.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="30.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="30.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="30.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="13" width="30.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -1499,76 +1486,76 @@
       <c r="A2" s="2">
         <v>2018</v>
       </c>
-      <c r="B2" s="1">
+      <c r="C2" s="1">
+        <v>21.18922469299599</v>
+      </c>
+      <c r="D2" s="1">
+        <v>2.792378445321929</v>
+      </c>
+      <c r="E2" s="1">
+        <v>5.905971709351733</v>
+      </c>
+      <c r="F2" s="1">
+        <v>1.934588988262252</v>
+      </c>
+      <c r="G2" s="1">
+        <v>0.4124690190305904</v>
+      </c>
+      <c r="H2" s="1">
+        <v>16.03153742726001</v>
+      </c>
+      <c r="I2" s="1">
+        <v>12.50182506565701</v>
+      </c>
+      <c r="J2" s="1">
+        <v>0.9964958753593773</v>
+      </c>
+      <c r="K2" s="1">
+        <v>2.339757623685481</v>
+      </c>
+      <c r="L2" s="1">
+        <v>33.08512186718689</v>
+      </c>
+      <c r="M2" s="1">
         <v>2.810629285888737</v>
-      </c>
-      <c r="C2" s="1">
-        <v>33.08512186718689</v>
-      </c>
-      <c r="D2" s="1">
-        <v>2.339757623685481</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0.9964958753593773</v>
-      </c>
-      <c r="F2" s="1">
-        <v>12.50182506565701</v>
-      </c>
-      <c r="G2" s="1">
-        <v>16.03153742726001</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0.4124690190305904</v>
-      </c>
-      <c r="I2" s="1">
-        <v>1.934588988262252</v>
-      </c>
-      <c r="J2" s="1">
-        <v>5.905971709351733</v>
-      </c>
-      <c r="K2" s="1">
-        <v>2.792378445321929</v>
-      </c>
-      <c r="L2" s="1">
-        <v>21.18922469299599</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="2">
         <v>2019</v>
       </c>
-      <c r="B3" s="1">
+      <c r="C3" s="1">
+        <v>20.11578983481594</v>
+      </c>
+      <c r="D3" s="1">
+        <v>2.779675689703831</v>
+      </c>
+      <c r="E3" s="1">
+        <v>5.767916816452715</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1.981372935106103</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.4171311924079166</v>
+      </c>
+      <c r="H3" s="1">
+        <v>16.0487611785455</v>
+      </c>
+      <c r="I3" s="1">
+        <v>12.26940917347014</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.9025854830271117</v>
+      </c>
+      <c r="K3" s="1">
+        <v>2.380524288639275</v>
+      </c>
+      <c r="L3" s="1">
+        <v>34.33780427827269</v>
+      </c>
+      <c r="M3" s="1">
         <v>2.999029129558789</v>
-      </c>
-      <c r="C3" s="1">
-        <v>34.33780427827269</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2.380524288639275</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.9025854830271117</v>
-      </c>
-      <c r="F3" s="1">
-        <v>12.26940917347014</v>
-      </c>
-      <c r="G3" s="1">
-        <v>16.0487611785455</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0.4171311924079166</v>
-      </c>
-      <c r="I3" s="1">
-        <v>1.981372935106103</v>
-      </c>
-      <c r="J3" s="1">
-        <v>5.767916816452715</v>
-      </c>
-      <c r="K3" s="1">
-        <v>2.779675689703831</v>
-      </c>
-      <c r="L3" s="1">
-        <v>20.11578983481594</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1576,40 +1563,40 @@
         <v>2020</v>
       </c>
       <c r="B4" s="1">
+        <v>0.003796939669038458</v>
+      </c>
+      <c r="C4" s="1">
+        <v>21.44511525072921</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2.938831303835765</v>
+      </c>
+      <c r="E4" s="1">
+        <v>5.889053426678647</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1.697232032060189</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.4214602856188903</v>
+      </c>
+      <c r="H4" s="1">
+        <v>14.40179216466287</v>
+      </c>
+      <c r="I4" s="1">
+        <v>10.60864938716345</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.6302919873689236</v>
+      </c>
+      <c r="K4" s="1">
+        <v>2.528761819579612</v>
+      </c>
+      <c r="L4" s="1">
+        <v>36.4506208227692</v>
+      </c>
+      <c r="M4" s="1">
         <v>2.984394579864225</v>
-      </c>
-      <c r="C4" s="1">
-        <v>36.4506208227692</v>
-      </c>
-      <c r="D4" s="1">
-        <v>2.528761819579612</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.6302919873689236</v>
-      </c>
-      <c r="F4" s="1">
-        <v>10.60864938716345</v>
-      </c>
-      <c r="G4" s="1">
-        <v>14.40179216466287</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0.4214602856188903</v>
-      </c>
-      <c r="I4" s="1">
-        <v>1.697232032060189</v>
-      </c>
-      <c r="J4" s="1">
-        <v>5.889053426678647</v>
-      </c>
-      <c r="K4" s="1">
-        <v>2.938831303835765</v>
-      </c>
-      <c r="L4" s="1">
-        <v>21.44511525072921</v>
-      </c>
-      <c r="M4" s="1">
-        <v>0.003796939669038458</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1617,40 +1604,40 @@
         <v>2021</v>
       </c>
       <c r="B5" s="1">
+        <v>0.007351589789579492</v>
+      </c>
+      <c r="C5" s="1">
+        <v>21.55486126304707</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2.797279887182746</v>
+      </c>
+      <c r="E5" s="1">
+        <v>6.094467902846825</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1.863628011658393</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.3969858356801156</v>
+      </c>
+      <c r="H5" s="1">
+        <v>15.73975373948969</v>
+      </c>
+      <c r="I5" s="1">
+        <v>10.86564970899848</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.6359124774676208</v>
+      </c>
+      <c r="K5" s="1">
+        <v>2.606138580405929</v>
+      </c>
+      <c r="L5" s="1">
+        <v>34.58187837018193</v>
+      </c>
+      <c r="M5" s="1">
         <v>2.856092633251624</v>
-      </c>
-      <c r="C5" s="1">
-        <v>34.58187837018193</v>
-      </c>
-      <c r="D5" s="1">
-        <v>2.606138580405929</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.6359124774676208</v>
-      </c>
-      <c r="F5" s="1">
-        <v>10.86564970899848</v>
-      </c>
-      <c r="G5" s="1">
-        <v>15.73975373948969</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0.3969858356801156</v>
-      </c>
-      <c r="I5" s="1">
-        <v>1.863628011658393</v>
-      </c>
-      <c r="J5" s="1">
-        <v>6.094467902846825</v>
-      </c>
-      <c r="K5" s="1">
-        <v>2.797279887182746</v>
-      </c>
-      <c r="L5" s="1">
-        <v>21.55486126304707</v>
-      </c>
-      <c r="M5" s="1">
-        <v>0.007351589789579492</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1658,40 +1645,40 @@
         <v>2022</v>
       </c>
       <c r="B6" s="1">
+        <v>0.006793016778456115</v>
+      </c>
+      <c r="C6" s="1">
+        <v>20.46396304509904</v>
+      </c>
+      <c r="D6" s="1">
+        <v>7.091909512360655</v>
+      </c>
+      <c r="E6" s="1">
+        <v>5.617824854045555</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1.728822770117077</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.3464438643963234</v>
+      </c>
+      <c r="H6" s="1">
+        <v>15.30806331025085</v>
+      </c>
+      <c r="I6" s="1">
+        <v>10.43407377170859</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.9714014080142861</v>
+      </c>
+      <c r="K6" s="1">
+        <v>2.36396983890272</v>
+      </c>
+      <c r="L6" s="1">
+        <v>31.94416140068989</v>
+      </c>
+      <c r="M6" s="1">
         <v>3.722573207636544</v>
-      </c>
-      <c r="C6" s="1">
-        <v>31.94416140068989</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2.36396983890272</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.9714014080142861</v>
-      </c>
-      <c r="F6" s="1">
-        <v>10.43407377170859</v>
-      </c>
-      <c r="G6" s="1">
-        <v>15.30806331025085</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0.3464438643963234</v>
-      </c>
-      <c r="I6" s="1">
-        <v>1.728822770117077</v>
-      </c>
-      <c r="J6" s="1">
-        <v>5.617824854045555</v>
-      </c>
-      <c r="K6" s="1">
-        <v>7.091909512360655</v>
-      </c>
-      <c r="L6" s="1">
-        <v>20.46396304509904</v>
-      </c>
-      <c r="M6" s="1">
-        <v>0.006793016778456115</v>
       </c>
     </row>
   </sheetData>
